--- a/Prices/Handle_base/AllGid/Classes_notebooks.xlsx
+++ b/Prices/Handle_base/AllGid/Classes_notebooks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Documents\ITR\NBReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Shulya403_works\Ya-parse\Prices\Handle_base\AllGid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Название</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Ультрабук</t>
   </si>
   <si>
-    <t>Выездной (13"-14")</t>
-  </si>
-  <si>
     <t>Трансформер</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>Ноутбуки с экраном от 16"</t>
   </si>
   <si>
-    <t>Платформа Intel Celeron N/ AMD Stoney Ridge Atom исключая доргие компакты и трансформеры</t>
-  </si>
-  <si>
-    <t>Самые дешевые и простые по конфигурации без стилистическтих особенностей</t>
-  </si>
-  <si>
     <t>Ноутбуки для простых задач без наворотов. Включают универсальны сери и полноразмерную часть класс 7</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>HP ProBook 4/6, Lenovo E/Edge, ThinkPad L, ThinkBook, Dell Vostro, Latitude 3, Asus Pro/ExpertBook, Acer TravelMate, Swift</t>
   </si>
   <si>
-    <t>По матрице 13 или 14</t>
-  </si>
-  <si>
     <t>По наличию поворотного экрана</t>
   </si>
   <si>
@@ -168,6 +156,63 @@
   </si>
   <si>
     <t>Ноутбуки на стандартной компонентной базе консюмерских серий с графикой как интегрированной так и мэйнстрим. Могут включать и класс 11</t>
+  </si>
+  <si>
+    <t>01_beginers</t>
+  </si>
+  <si>
+    <t>02_study</t>
+  </si>
+  <si>
+    <t>03_universum</t>
+  </si>
+  <si>
+    <t>04_premium</t>
+  </si>
+  <si>
+    <t>05_corporate</t>
+  </si>
+  <si>
+    <t>06_smb</t>
+  </si>
+  <si>
+    <t>07_bus_essential</t>
+  </si>
+  <si>
+    <t>08_ultrabook</t>
+  </si>
+  <si>
+    <t>09_mobile</t>
+  </si>
+  <si>
+    <t>10_2_in_1</t>
+  </si>
+  <si>
+    <t>10_game_high</t>
+  </si>
+  <si>
+    <t>10_game_mid</t>
+  </si>
+  <si>
+    <t>10_workstation</t>
+  </si>
+  <si>
+    <t>10_mini</t>
+  </si>
+  <si>
+    <t>10_maxy</t>
+  </si>
+  <si>
+    <t>Самые простые по конфигурации</t>
+  </si>
+  <si>
+    <t>Платформа Intel Celeron N/ AMD Stoney Ridge Atom без дискретной графики</t>
+  </si>
+  <si>
+    <t>Выездной (10"-14")</t>
+  </si>
+  <si>
+    <t>По матрице 10-14</t>
   </si>
 </sst>
 </file>
@@ -501,241 +546,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="25.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="19.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
